--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1151.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1151.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.000822905738091</v>
+        <v>1.161539316177368</v>
       </c>
       <c r="B1">
-        <v>2.287438433977621</v>
+        <v>2.415287017822266</v>
       </c>
       <c r="C1">
-        <v>2.447641898219441</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.445363229988914</v>
+        <v>2.379549503326416</v>
       </c>
       <c r="E1">
-        <v>1.222708390792355</v>
+        <v>1.230799913406372</v>
       </c>
     </row>
   </sheetData>
